--- a/venv/buyAndSell.xlsx
+++ b/venv/buyAndSell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijiu\Desktop\work\Git\buyAndsSell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijiu\Desktop\work\Git\buyAndsSell\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60760113-32A4-42E5-B84A-7BFD6F144BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E2437-87B4-4AC2-B064-DB5985D15FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{210D952D-91B4-4CB3-AE3B-2CD6DD3FE552}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{210D952D-91B4-4CB3-AE3B-2CD6DD3FE552}"/>
   </bookViews>
   <sheets>
     <sheet name="Merukari" sheetId="1" r:id="rId1"/>
@@ -243,19 +243,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>samsung desktop ddr4 8g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samsung desktop ddr4 16g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samsung ノート laptop ddr4 8g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samsung ノート laptop ddr4 16g</t>
+    <t>samsung ram desktop ddr4 8g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>samsung ram desktop ddr4 16g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>samsung ram ノート laptop ddr4 8g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>samsung ram ノート laptop ddr4 16g</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CA20-D2EC-4F5C-996C-FC1275DFE01B}">
   <dimension ref="B5:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB46965-A604-49BC-B35E-66C5C2874C09}">
   <dimension ref="B5:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/venv/buyAndSell.xlsx
+++ b/venv/buyAndSell.xlsx
@@ -8,20 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijiu\Desktop\work\Git\buyAndsSell\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E2437-87B4-4AC2-B064-DB5985D15FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5672D00-F2B7-431A-8848-CB78EF8392CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{210D952D-91B4-4CB3-AE3B-2CD6DD3FE552}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Merukari" sheetId="1" r:id="rId1"/>
     <sheet name="Naver" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -29,240 +24,55 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>상품명</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>최저가</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최고가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최고가 </t>
   </si>
   <si>
     <t>평균가</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>링크</t>
+  </si>
+  <si>
+    <t>samsung ram desktop ddr4 8g</t>
+  </si>
+  <si>
+    <t>samsung ram desktop ddr4 16g</t>
+  </si>
+  <si>
+    <t>samsung ram ノート laptop ddr4 8g</t>
+  </si>
+  <si>
+    <t>samsung ram ノート laptop ddr4 16g</t>
   </si>
   <si>
     <t>차이</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>링크</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삼성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> ram ddr4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데스크탑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 8g</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삼성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> ram ddr4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데스크탑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 16g</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삼성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> ram ddr4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노트북</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 8g</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삼성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> ram ddr4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노트북</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 16g</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samsung ram desktop ddr4 8g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samsung ram desktop ddr4 16g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samsung ram ノート laptop ddr4 8g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samsung ram ノート laptop ddr4 16g</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>삼성 ram ddr4 데스크탑 8g</t>
+  </si>
+  <si>
+    <t>삼성 ram ddr4 데스크탑 16g</t>
+  </si>
+  <si>
+    <t>삼성 ram ddr4 노트북 8g</t>
+  </si>
+  <si>
+    <t>삼성 ram ddr4 노트북 16g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,20 +124,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,53 +469,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CA20-D2EC-4F5C-996C-FC1275DFE01B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.21875" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -699,124 +526,134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB46965-A604-49BC-B35E-66C5C2874C09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="84.77734375" customWidth="1"/>
+    <col min="2" max="2" width="84.77734375" style="4" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="14.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>23400</v>
+      </c>
+      <c r="D6">
+        <v>91500</v>
+      </c>
+      <c r="E6">
+        <v>46190</v>
+      </c>
+      <c r="F6" s="8">
         <f>Merukari!E6-E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="14.4" x14ac:dyDescent="0.2">
+        <v>-46190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8">
         <f>Merukari!E7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8">
         <f>Merukari!E8-E8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8">
         <f>Merukari!E9-E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F10">
+      <c r="F10" s="8">
         <f>Merukari!E10-E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F11">
+      <c r="F11" s="8">
         <f>Merukari!E11-E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F12">
+      <c r="F12" s="8">
         <f>Merukari!E12-E12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F13">
+      <c r="F13" s="8">
         <f>Merukari!E13-E13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F14">
+      <c r="F14" s="8">
         <f>Merukari!E14-E14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F15">
+      <c r="F15" s="8">
         <f>Merukari!E15-E15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F16">
+      <c r="F16" s="8">
         <f>Merukari!E16-E16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17">
+      <c r="F17" s="8">
         <f>Merukari!E17-E17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18">
+      <c r="F18" s="8">
         <f>Merukari!E18-E18</f>
         <v>0</v>
       </c>
@@ -824,5 +661,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/venv/buyAndSell.xlsx
+++ b/venv/buyAndSell.xlsx
@@ -1,110 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijiu\Desktop\work\Git\buyAndsSell\venv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5672D00-F2B7-431A-8848-CB78EF8392CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Merukari" sheetId="1" r:id="rId1"/>
-    <sheet name="Naver" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merukari" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Naver" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>상품명</t>
-  </si>
-  <si>
-    <t>최저가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최고가 </t>
-  </si>
-  <si>
-    <t>평균가</t>
-  </si>
-  <si>
-    <t>링크</t>
-  </si>
-  <si>
-    <t>samsung ram desktop ddr4 8g</t>
-  </si>
-  <si>
-    <t>samsung ram desktop ddr4 16g</t>
-  </si>
-  <si>
-    <t>samsung ram ノート laptop ddr4 8g</t>
-  </si>
-  <si>
-    <t>samsung ram ノート laptop ddr4 16g</t>
-  </si>
-  <si>
-    <t>차이</t>
-  </si>
-  <si>
-    <t>삼성 ram ddr4 데스크탑 8g</t>
-  </si>
-  <si>
-    <t>삼성 ram ddr4 데스크탑 16g</t>
-  </si>
-  <si>
-    <t>삼성 ram ddr4 노트북 8g</t>
-  </si>
-  <si>
-    <t>삼성 ram ddr4 노트북 16g</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
+      <name val="BatangChe"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="BatangChe"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,56 +67,133 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,198 +493,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B5:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="59.21875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="5" customWidth="1"/>
+    <col width="59.21875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="8.88671875" customWidth="1" style="11" min="3" max="5"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="5" ht="14.4" customFormat="1" customHeight="1" s="3">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>상품명</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>최저가</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">최고가 </t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>평균가</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>링크</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>samsung ram desktop ddr4 8g</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>samsung ram desktop ddr4 16g</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>samsung ram ノート laptop ddr4 8g</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>samsung ram ノート laptop ddr4 16g</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B5:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="84.77734375" style="4" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="8" customWidth="1"/>
+    <col width="84.77734375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="8.88671875" customWidth="1" style="14" min="3" max="6"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+    <row r="5" ht="14.4" customFormat="1" customHeight="1" s="3">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>상품명</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>최저가</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">최고가 </t>
+        </is>
+      </c>
+      <c r="E5" s="15" t="inlineStr">
+        <is>
+          <t>평균가</t>
+        </is>
+      </c>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>차이</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>링크</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1" s="4">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>삼성 ram ddr4 데스크탑 8g</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>23400</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>91500</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>46190</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="14">
         <f>Merukari!E6-E6</f>
-        <v>-46190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1" s="4">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>삼성 ram ddr4 데스크탑 16g</t>
+        </is>
+      </c>
+      <c r="F7" s="14">
         <f>Merukari!E7-E7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" s="4">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>삼성 ram ddr4 노트북 8g</t>
+        </is>
+      </c>
+      <c r="F8" s="14">
         <f>Merukari!E8-E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" s="4">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>삼성 ram ddr4 노트북 16g</t>
+        </is>
+      </c>
+      <c r="F9" s="14">
         <f>Merukari!E9-E9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="14">
         <f>Merukari!E10-E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="14">
         <f>Merukari!E11-E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="14">
         <f>Merukari!E12-E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="14">
         <f>Merukari!E13-E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="14">
         <f>Merukari!E14-E14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="14">
         <f>Merukari!E15-E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="14">
         <f>Merukari!E16-E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="14">
         <f>Merukari!E17-E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="14">
         <f>Merukari!E18-E18</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/venv/buyAndSell.xlsx
+++ b/venv/buyAndSell.xlsx
@@ -1,57 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijiu\Desktop\work\Git\buyAndsSell\venv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E0E5C-551F-4198-AB56-4E4CD5EA3DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merukari" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Naver" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Merukari" sheetId="1" r:id="rId1"/>
+    <sheet name="Naver" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+  <si>
+    <t>상품명</t>
+  </si>
+  <si>
+    <t>최저가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최고가 </t>
+  </si>
+  <si>
+    <t>평균가</t>
+  </si>
+  <si>
+    <t>링크</t>
+  </si>
+  <si>
+    <t>samsung ram desktop ddr4 16g</t>
+  </si>
+  <si>
+    <t>samsung ram ノート laptop ddr4 8g</t>
+  </si>
+  <si>
+    <t>samsung ram ノート laptop ddr4 16g</t>
+  </si>
+  <si>
+    <t>차이</t>
+  </si>
+  <si>
+    <t>삼성 ram ddr4 데스크탑 16g</t>
+  </si>
+  <si>
+    <t>삼성 ram ddr4 노트북 8g</t>
+  </si>
+  <si>
+    <t>삼성 ram ddr4 노트북 16g</t>
+  </si>
+  <si>
+    <r>
+      <t>삼성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데스크탑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ddr 4 21300</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>samsung メモリ ddr 4 21300 8g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="BatangChe"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,133 +194,59 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -493,243 +546,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B5:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="59.21875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="11" min="3" max="5"/>
+    <col min="2" max="2" width="59.21875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="14.4" customFormat="1" customHeight="1" s="3">
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>상품명</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>최저가</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">최고가 </t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>평균가</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>링크</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>samsung ram desktop ddr4 8g</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>samsung ram desktop ddr4 16g</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>samsung ram ノート laptop ddr4 8g</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>samsung ram ノート laptop ddr4 16g</t>
-        </is>
-      </c>
-    </row>
-    <row r="10"/>
+    <row r="5" spans="2:6" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="84.77734375" customWidth="1" style="4" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="14" min="3" max="6"/>
+    <col min="2" max="2" width="84.77734375" style="4" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="14.4" customFormat="1" customHeight="1" s="3">
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>상품명</t>
-        </is>
-      </c>
-      <c r="C5" s="15" t="inlineStr">
-        <is>
-          <t>최저가</t>
-        </is>
-      </c>
-      <c r="D5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">최고가 </t>
-        </is>
-      </c>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>평균가</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t>차이</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>링크</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1" s="4">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>삼성 ram ddr4 데스크탑 8g</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
+    <row r="5" spans="2:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>23400</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>91500</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>46190</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="8">
         <f>Merukari!E6-E6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="14.4" customHeight="1" s="4">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>삼성 ram ddr4 데스크탑 16g</t>
-        </is>
-      </c>
-      <c r="F7" s="14">
+        <v>-46190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8">
         <f>Merukari!E7-E7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" s="4">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>삼성 ram ddr4 노트북 8g</t>
-        </is>
-      </c>
-      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
         <f>Merukari!E8-E8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" s="4">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>삼성 ram ddr4 노트북 16g</t>
-        </is>
-      </c>
-      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
         <f>Merukari!E9-E9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="8">
         <f>Merukari!E10-E10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="8">
         <f>Merukari!E11-E11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="8">
         <f>Merukari!E12-E12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="8">
         <f>Merukari!E13-E13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="8">
         <f>Merukari!E14-E14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="8">
         <f>Merukari!E15-E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="8">
         <f>Merukari!E16-E16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="8">
         <f>Merukari!E17-E17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="8">
         <f>Merukari!E18-E18</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>